--- a/TestDetails.xlsx
+++ b/TestDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon Studio\AlfaCart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{14F73A45-844B-47F8-8BC6-B2FD153CC0F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0F3C94BA-0B9C-4025-8FB1-982A46480E04}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F8F4596C-AFB9-49B3-AF28-BEE0D26AEC01}" yWindow="-120"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Nama</t>
   </si>
@@ -75,10 +75,19 @@
     <t>Akun Anda untuk sementara tidak dapat digunakan untuk berbelanj</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>OK invalid id</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>Akun Anda untuk sementara tidak dapat digunakan untuk berbelanja.</t>
+  </si>
+  <si>
+    <t>OK berhasil masuk profile</t>
+  </si>
+  <si>
+    <t>Oke</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3F1545-FD12-47C4-A17E-5E3A3BEB41DB}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,10 +518,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,13 +541,21 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4" xr:uid="{9EBBEB8F-C28A-4092-835F-E1C89613CA1A}"/>
-    <hyperlink r:id="rId2" ref="B3" xr:uid="{2651A30F-4F37-4227-9043-0424433AC40F}"/>
+    <hyperlink r:id="rId1" ref="B3" xr:uid="{2651A30F-4F37-4227-9043-0424433AC40F}"/>
+    <hyperlink r:id="rId2" ref="B4" xr:uid="{9EBBEB8F-C28A-4092-835F-E1C89613CA1A}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestDetails.xlsx
+++ b/TestDetails.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon Studio\AlfaCart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{0F3C94BA-0B9C-4025-8FB1-982A46480E04}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5C6D81-3CF1-4C73-8383-BE67C40063A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F8F4596C-AFB9-49B3-AF28-BEE0D26AEC01}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8F4596C-AFB9-49B3-AF28-BEE0D26AEC01}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Nama</t>
   </si>
@@ -48,9 +48,6 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>Login Sukses</t>
-  </si>
-  <si>
     <t>Rizki Maulana</t>
   </si>
   <si>
@@ -72,29 +69,40 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>Akun Anda untuk sementara tidak dapat digunakan untuk berbelanj</t>
-  </si>
-  <si>
-    <t>OK invalid id</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Insert Valid Email &amp; Password (Positif)</t>
+  </si>
+  <si>
+    <t>Insert invalid Email symbol &amp; valid password (Negatif)</t>
+  </si>
+  <si>
+    <t>86772272121</t>
+  </si>
+  <si>
+    <t>Insert invalid Email &amp; Password (Negatif)</t>
+  </si>
+  <si>
+    <t>0816555895</t>
   </si>
   <si>
     <t>Akun Anda untuk sementara tidak dapat digunakan untuk berbelanja.</t>
   </si>
   <si>
-    <t>OK berhasil masuk profile</t>
-  </si>
-  <si>
-    <t>Oke</t>
+    <t>Insert Valid Nomor Hp &amp; Password (Positif)</t>
+  </si>
+  <si>
+    <t>Login Success Go To page Profile</t>
+  </si>
+  <si>
+    <t>TestingQA123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,15 +120,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,21 +142,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -159,10 +194,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -197,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -249,7 +284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -360,21 +395,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -391,7 +426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -443,120 +478,126 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3F1545-FD12-47C4-A17E-5E3A3BEB41DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3F1545-FD12-47C4-A17E-5E3A3BEB41DB}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="63.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>86772272121</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3" xr:uid="{2651A30F-4F37-4227-9043-0424433AC40F}"/>
-    <hyperlink r:id="rId2" ref="B4" xr:uid="{9EBBEB8F-C28A-4092-835F-E1C89613CA1A}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{2651A30F-4F37-4227-9043-0424433AC40F}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{9EBBEB8F-C28A-4092-835F-E1C89613CA1A}"/>
+    <hyperlink ref="C2" r:id="rId3" display="hilmi.falih@yahoo.com" xr:uid="{C5B2145F-8914-4E54-89F8-620D3B4D7033}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>